--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="votos totales" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="47">
   <si>
     <t>ADN</t>
   </si>
@@ -167,18 +167,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Se fucuono con el PIR y la FSB</t>
-  </si>
-  <si>
-    <t>Tuto se adueño y lo convirtio en PODEMOS</t>
-  </si>
-  <si>
-    <t>en 2005 se fusiono con el PDC</t>
-  </si>
-  <si>
-    <t>En 2005</t>
   </si>
 </sst>
 </file>
@@ -202,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +239,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9AADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,11 +281,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,12 +312,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC9AADA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1514,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2110,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2099,7 +2133,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2168,7 +2202,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2329,7 +2363,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2352,7 +2386,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2398,7 +2432,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2514,219 +2548,300 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E40"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="F2" s="13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="14">
+        <v>484705</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="F3" s="14">
+        <v>94386</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="14">
+        <v>373528</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="F4" s="14">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="14">
+        <v>18327</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="F5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="14">
+        <v>80806</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="14">
+        <v>67244</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="14">
+        <v>365005</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="14">
+        <v>396235</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="F9" s="14">
+        <v>624126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="14">
+        <v>10381</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="14">
+        <v>350728</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="F11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="14">
+        <v>30212</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="F13" s="14">
+        <v>75522</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="14">
+        <v>581884</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="14">
+        <v>17405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="F16" s="14">
+        <v>169239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="F17" s="14">
+        <v>453375</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="F18" s="14">
+        <v>581163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="F19" s="14">
+        <v>18162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>43</v>
+      <c r="F20" s="14">
+        <v>153210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>1997</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -14,7 +14,9 @@
   <sheets>
     <sheet name="votos totales" sheetId="1" r:id="rId1"/>
     <sheet name="Votos" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Votos (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="49">
   <si>
     <t>ADN</t>
   </si>
@@ -167,13 +169,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>MIR NM FRI</t>
+  </si>
+  <si>
+    <t>UCS - FSB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +197,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -295,10 +335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -322,9 +363,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2554,10 +2605,1696 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B3:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1997</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2002</v>
+      </c>
+      <c r="O3" s="13">
+        <v>2005</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>484705</v>
+      </c>
+      <c r="D4" s="3">
+        <v>94386</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <f>C4/C$46</f>
+        <v>0.20882402739715406</v>
+      </c>
+      <c r="N4" s="27">
+        <f>D4/D$46</f>
+        <v>3.1524365703483388E-2</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="29">
+        <f t="shared" ref="P4:R19" si="0">H4/H$46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>373528</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10336</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" ref="M5:M45" si="1">C5/C$46</f>
+        <v>0.16092596797145511</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" ref="N5:N45" si="2">D5/D$46</f>
+        <v>3.4521628621957106E-3</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>18327</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" si="1"/>
+        <v>7.8957674257695756E-3</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>80806</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="1"/>
+        <v>3.4813410956879814E-2</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67244</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" si="1"/>
+        <v>2.8970534445269237E-2</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>365005</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15725402898690588</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>396235</v>
+      </c>
+      <c r="D10" s="3">
+        <v>624126</v>
+      </c>
+      <c r="E10" s="3">
+        <v>185859</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.17070875789544432</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="2"/>
+        <v>0.20845439227271284</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" ref="O5:O45" si="3">E10/E$46</f>
+        <v>5.9907807364387188E-2</v>
+      </c>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10381</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" si="1"/>
+        <v>4.472415651602224E-3</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>350728</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15110311113140784</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30212</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="29">
+        <f t="shared" si="1"/>
+        <v>1.301614696717141E-2</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7">
+        <v>75522</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29">
+        <f t="shared" si="2"/>
+        <v>2.5223901284708247E-2</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>581884</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1544374</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2943209</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3173304</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3394052</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27">
+        <f t="shared" si="2"/>
+        <v>0.19434581413563165</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="3"/>
+        <v>0.4977970401786736</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.60566834861630148</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.57826008678354912</v>
+      </c>
+      <c r="R15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.52344969346120485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17405</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29">
+        <f t="shared" si="2"/>
+        <v>5.8131670488115652E-3</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>169239</v>
+      </c>
+      <c r="E17" s="3">
+        <v>61948</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27">
+        <f t="shared" si="2"/>
+        <v>5.6524824945350216E-2</v>
+      </c>
+      <c r="O17" s="29">
+        <f t="shared" si="3"/>
+        <v>1.9967657474801098E-2</v>
+      </c>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7">
+        <v>453375</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27">
+        <f t="shared" si="2"/>
+        <v>0.15142456827089593</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7">
+        <v>581163</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19667</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27">
+        <f t="shared" si="2"/>
+        <v>0.19410500440037207</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="3"/>
+        <v>6.3392509775442828E-3</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>18162</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="29">
+        <f t="shared" si="2"/>
+        <v>6.0660005711298849E-3</v>
+      </c>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7">
+        <v>153210</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27">
+        <f t="shared" si="2"/>
+        <v>5.1171233757450155E-2</v>
+      </c>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8737</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="29">
+        <f t="shared" si="3"/>
+        <v>2.8161913759497835E-3</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8">
+        <v>821745</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27">
+        <f t="shared" si="3"/>
+        <v>0.26487251713744475</v>
+      </c>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="8">
+        <v>224090</v>
+      </c>
+      <c r="F24" s="3">
+        <v>258971</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27">
+        <f t="shared" si="3"/>
+        <v>7.2230780065993705E-2</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" ref="P20:R46" si="4">F24/F$46</f>
+        <v>5.3292354674612713E-2</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7381</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="29">
+        <f t="shared" si="3"/>
+        <v>2.3791128014061295E-3</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="9">
+        <v>106027</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="29">
+        <f t="shared" si="4"/>
+        <v>2.1818769240900187E-2</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9">
+        <v>9905</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="29">
+        <f t="shared" si="4"/>
+        <v>2.0383007095467792E-3</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9">
+        <v>15627</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="29">
+        <f t="shared" si="4"/>
+        <v>3.215802643926049E-3</v>
+      </c>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="9">
+        <v>23257</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="29">
+        <f t="shared" si="4"/>
+        <v>4.7859424131175606E-3</v>
+      </c>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1212795</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27">
+        <f t="shared" si="4"/>
+        <v>0.24957505391567752</v>
+      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="9">
+        <v>12995</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="29">
+        <f t="shared" si="4"/>
+        <v>2.6741764483150321E-3</v>
+      </c>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="10">
+        <v>140285</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="29">
+        <f t="shared" si="4"/>
+        <v>2.556364479244037E-2</v>
+      </c>
+      <c r="R32" s="27"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="10">
+        <v>467311</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27">
+        <f t="shared" si="4"/>
+        <v>8.5156448740778434E-2</v>
+      </c>
+      <c r="R33" s="27"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="10">
+        <v>137240</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29">
+        <f t="shared" si="4"/>
+        <v>2.5008765094732269E-2</v>
+      </c>
+      <c r="R34" s="27"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1253288</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27">
+        <f t="shared" si="4"/>
+        <v>0.22838228787559614</v>
+      </c>
+      <c r="R35" s="27"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1775953</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27">
+        <f t="shared" si="4"/>
+        <v>0.27389741036716797</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="11">
+        <v>862186</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27">
+        <f t="shared" si="4"/>
+        <v>0.13297114994305992</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="11">
+        <v>95255</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="29">
+        <f t="shared" si="4"/>
+        <v>1.4690759172413113E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="11">
+        <v>31765</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="29">
+        <f t="shared" si="4"/>
+        <v>4.8989760654212641E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3">
+        <v>76743</v>
+      </c>
+      <c r="D42" s="3">
+        <v>130685</v>
+      </c>
+      <c r="E42" s="3">
+        <v>124046</v>
+      </c>
+      <c r="F42" s="3">
+        <v>156290</v>
+      </c>
+      <c r="G42" s="3">
+        <v>108187</v>
+      </c>
+      <c r="H42" s="3">
+        <v>91419</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="27">
+        <f t="shared" si="1"/>
+        <v>3.306296063490121E-2</v>
+      </c>
+      <c r="N42" s="27">
+        <f t="shared" si="2"/>
+        <v>4.3648016993619046E-2</v>
+      </c>
+      <c r="O42" s="27">
+        <f t="shared" si="3"/>
+        <v>3.9983664349441096E-2</v>
+      </c>
+      <c r="P42" s="27">
+        <f t="shared" si="4"/>
+        <v>3.2162142139835044E-2</v>
+      </c>
+      <c r="Q42" s="27">
+        <f t="shared" si="4"/>
+        <v>1.9714538540540658E-2</v>
+      </c>
+      <c r="R42" s="27">
+        <f t="shared" si="4"/>
+        <v>1.40991497851329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2321117</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2994065</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3102417</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4859440</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5487676</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6484008</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3">
+        <v>67203</v>
+      </c>
+      <c r="D44" s="3">
+        <v>84572</v>
+      </c>
+      <c r="E44" s="3">
+        <v>104570</v>
+      </c>
+      <c r="F44" s="3">
+        <v>120364</v>
+      </c>
+      <c r="G44" s="3">
+        <v>208061</v>
+      </c>
+      <c r="H44" s="3">
+        <v>233378</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="27">
+        <f t="shared" si="1"/>
+        <v>2.895287053603933E-2</v>
+      </c>
+      <c r="N44" s="27">
+        <f t="shared" si="2"/>
+        <v>2.8246547753639283E-2</v>
+      </c>
+      <c r="O44" s="27">
+        <f t="shared" si="3"/>
+        <v>3.3705978274358346E-2</v>
+      </c>
+      <c r="P44" s="27">
+        <f t="shared" si="4"/>
+        <v>2.4769109197767643E-2</v>
+      </c>
+      <c r="Q44" s="27">
+        <f t="shared" si="4"/>
+        <v>3.7914228172362945E-2</v>
+      </c>
+      <c r="R44" s="27">
+        <f t="shared" si="4"/>
+        <v>3.5992861205599996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2177171</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2778808</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2873801</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4582786</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5171428</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6159211</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="27">
+        <f t="shared" si="1"/>
+        <v>0.93798416882905944</v>
+      </c>
+      <c r="N45" s="27">
+        <f t="shared" si="2"/>
+        <v>0.9281054352527417</v>
+      </c>
+      <c r="O45" s="27">
+        <f t="shared" si="3"/>
+        <v>0.9263103573762006</v>
+      </c>
+      <c r="P45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.94306874866239732</v>
+      </c>
+      <c r="Q45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.94237123328709638</v>
+      </c>
+      <c r="R45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.9499079890092671</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <f>SUM((C4:C41),C42,C44)</f>
+        <v>2321117</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:H46" si="5">SUM((D4:D41),D42,D44)</f>
+        <v>2994065</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>3102417</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>4859440</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>5487676</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>6484008</v>
+      </c>
+      <c r="M46" s="26">
+        <f>SUM(M4:M41,M42,M44)</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="26">
+        <f>SUM(N4:N41,N42,N44)</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="26">
+        <f t="shared" ref="O46:R46" si="6">SUM(O4:O41,O42,O44)</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="26">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="R46" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,65 +4523,128 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="19">
         <v>1997</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="19">
         <v>2002</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C29" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\VOLATILIDAD_ELEC\METODOLOGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB4F93-E3CE-47CB-AA14-56E77FC6333D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="votos totales" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="60">
   <si>
     <t>ADN</t>
   </si>
@@ -176,11 +177,44 @@
   <si>
     <t>UCS - FSB</t>
   </si>
+  <si>
+    <t>OTROS PARTIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ADN + NFR</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MIR-NM-FRI-UCS</t>
+  </si>
+  <si>
+    <t>VE9702</t>
+  </si>
+  <si>
+    <t>VE0205</t>
+  </si>
+  <si>
+    <t>VE0509</t>
+  </si>
+  <si>
+    <t>VE0914</t>
+  </si>
+  <si>
+    <t>VE1420</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -334,12 +368,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -363,15 +408,20 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,21 +707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -718,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -765,12 +815,12 @@
         <v>2177171</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -820,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -870,12 +920,12 @@
         <v>2778808</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -916,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -957,12 +1007,12 @@
         <v>2873801</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1003,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1044,7 +1094,7 @@
         <v>4462411</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1085,7 +1135,7 @@
         <v>120375</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>SUM(B18:B19)</f>
         <v>106027</v>
@@ -1135,7 +1185,7 @@
         <v>4582786</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>106027</v>
       </c>
@@ -1173,12 +1223,12 @@
         <v>4582786</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1298,7 @@
         <v>5011388</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1333,7 @@
         <v>160040</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <f>SUM(B24:B25)</f>
         <v>3173304</v>
@@ -1325,7 +1375,7 @@
         <v>5171428</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>3173304</v>
       </c>
@@ -1357,12 +1407,12 @@
         <v>5171428</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1500,7 @@
         <v>5996402</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1494,7 +1544,7 @@
         <v>162809</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <f>SUM(B30:B31)</f>
         <v>0</v>
@@ -1548,7 +1598,7 @@
         <v>6159211</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1596,19 +1646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1631,7 +1681,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1723,7 +1773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1884,7 +1934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1907,7 +1957,7 @@
         <v>3394052</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +2003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +2026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1999,7 +2049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2022,7 +2072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +2095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2114,7 +2164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
@@ -2206,7 +2256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -2229,7 +2279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2252,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -2298,7 +2348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -2321,7 +2371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
@@ -2344,7 +2394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2367,7 +2417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2440,7 @@
         <v>1775953</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2413,7 +2463,7 @@
         <v>862186</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2486,7 @@
         <v>95255</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
@@ -2459,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2482,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
@@ -2505,7 +2555,7 @@
         <v>31765</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
@@ -2528,7 +2578,7 @@
         <v>91419</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2601,7 @@
         <v>6484008</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2624,7 @@
         <v>233378</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2604,20 +2654,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="J1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:Z45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="25" customWidth="1"/>
+    <col min="2" max="8" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2639,7 +2689,7 @@
       <c r="H3" s="2">
         <v>2020</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="13">
@@ -2660,8 +2710,29 @@
       <c r="R3" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1997</v>
+      </c>
+      <c r="V3" s="13">
+        <v>2002</v>
+      </c>
+      <c r="W3" s="13">
+        <v>2005</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2683,26 +2754,44 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="27">
-        <f>C4/C$46</f>
+      <c r="M4" s="26">
+        <f>$C4/$C$46</f>
         <v>0.20882402739715406</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="26">
         <f>D4/D$46</f>
         <v>3.1524365703483388E-2</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="29">
-        <f t="shared" ref="P4:R19" si="0">H4/H$46</f>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="28">
+        <f t="shared" ref="P4:R15" si="0">H4/H$46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26">
+        <f>C4/C$45</f>
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="V4" s="26">
+        <f>D4/D$45</f>
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
+        <f>H4/H$45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2724,23 +2813,38 @@
       <c r="H5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="27">
-        <f t="shared" ref="M5:M45" si="1">C5/C$46</f>
+      <c r="M5" s="26">
+        <f>$C5/$C$46</f>
         <v>0.16092596797145511</v>
       </c>
-      <c r="N5" s="29">
-        <f t="shared" ref="N5:N45" si="2">D5/D$46</f>
+      <c r="N5" s="28">
+        <f t="shared" ref="N5:N45" si="1">D5/D$46</f>
         <v>3.4521628621957106E-3</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="T5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="26">
+        <f t="shared" ref="U5:U13" si="2">C5/C$45</f>
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="V5" s="26">
+        <f>D5/D$45</f>
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
@@ -2762,20 +2866,32 @@
       <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="28">
-        <f t="shared" si="1"/>
+      <c r="M6" s="27">
+        <f>$C6/$C$46</f>
         <v>7.8957674257695756E-3</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="T6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="26">
+        <f t="shared" si="2"/>
+        <v>8.4178045729986304E-3</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2797,20 +2913,32 @@
       <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="27">
-        <f t="shared" si="1"/>
+      <c r="M7" s="26">
+        <f t="shared" ref="M5:M45" si="3">C7/C$46</f>
         <v>3.4813410956879814E-2</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="T7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="26">
+        <f t="shared" si="2"/>
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2832,20 +2960,32 @@
       <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="29">
-        <f t="shared" si="1"/>
+      <c r="M8" s="28">
+        <f t="shared" si="3"/>
         <v>2.8970534445269237E-2</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="T8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="26">
+        <f t="shared" si="2"/>
+        <v>3.0885952458488561E-2</v>
+      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2867,20 +3007,32 @@
       <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="27">
-        <f t="shared" si="1"/>
+      <c r="M9" s="26">
+        <f t="shared" si="3"/>
         <v>0.15725402898690588</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="T9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="26">
+        <f t="shared" si="2"/>
+        <v>0.167651048080284</v>
+      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2902,26 +3054,44 @@
       <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
+        <f t="shared" si="3"/>
+        <v>0.17070875789544432</v>
+      </c>
+      <c r="N10" s="26">
         <f t="shared" si="1"/>
-        <v>0.17070875789544432</v>
-      </c>
-      <c r="N10" s="27">
+        <v>0.20845439227271284</v>
+      </c>
+      <c r="O10" s="26">
+        <f t="shared" ref="O10:O45" si="4">E10/E$46</f>
+        <v>5.9907807364387188E-2</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="T10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="26">
         <f t="shared" si="2"/>
-        <v>0.20845439227271284</v>
-      </c>
-      <c r="O10" s="27">
-        <f t="shared" ref="O5:O45" si="3">E10/E$46</f>
-        <v>5.9907807364387188E-2</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="V10" s="26">
+        <f t="shared" ref="V6:V21" si="5">D10/D$45</f>
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="W10" s="26">
+        <f>E10/E$45</f>
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2943,20 +3113,32 @@
       <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="29">
-        <f t="shared" si="1"/>
+      <c r="M11" s="28">
+        <f t="shared" si="3"/>
         <v>4.472415651602224E-3</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="T11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="26">
+        <f t="shared" si="2"/>
+        <v>4.7681142179461329E-3</v>
+      </c>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2978,20 +3160,32 @@
       <c r="H12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="27">
-        <f t="shared" si="1"/>
+      <c r="M12" s="26">
+        <f t="shared" si="3"/>
         <v>0.15110311113140784</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="T12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="26">
+        <f t="shared" si="2"/>
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
@@ -3013,20 +3207,32 @@
       <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="29">
-        <f t="shared" si="1"/>
+      <c r="M13" s="28">
+        <f t="shared" si="3"/>
         <v>1.301614696717141E-2</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="T13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="26">
+        <f t="shared" si="2"/>
+        <v>1.3876723509545184E-2</v>
+      </c>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3048,20 +3254,32 @@
       <c r="H14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="29">
-        <f t="shared" si="2"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28">
+        <f t="shared" si="1"/>
         <v>2.5223901284708247E-2</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="T14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26">
+        <f t="shared" si="5"/>
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3083,32 +3301,56 @@
       <c r="H15" s="3">
         <v>3394052</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27">
-        <f t="shared" si="2"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26">
+        <f t="shared" si="1"/>
         <v>0.19434581413563165</v>
       </c>
-      <c r="O15" s="27">
-        <f t="shared" si="3"/>
+      <c r="O15" s="26">
+        <f t="shared" si="4"/>
         <v>0.4977970401786736</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="26">
         <f t="shared" si="0"/>
         <v>0.60566834861630148</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="26">
         <f t="shared" si="0"/>
         <v>0.57826008678354912</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="26">
         <f t="shared" si="0"/>
         <v>0.52344969346120485</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26">
+        <f t="shared" si="5"/>
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="W15" s="26">
+        <f t="shared" ref="W11:W25" si="6">E15/E$45</f>
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="X15" s="26">
+        <f>F15/F$45</f>
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="Y15" s="26">
+        <f>G15/G$45</f>
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="Z15" s="26">
+        <f>H15/H$45</f>
+        <v>0.55105304884018425</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
@@ -3130,20 +3372,32 @@
       <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="29">
-        <f t="shared" si="2"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28">
+        <f t="shared" si="1"/>
         <v>5.8131670488115652E-3</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="T16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26">
+        <f t="shared" si="5"/>
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3165,23 +3419,38 @@
       <c r="H17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27">
-        <f t="shared" si="2"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26">
+        <f t="shared" si="1"/>
         <v>5.6524824945350216E-2</v>
       </c>
-      <c r="O17" s="29">
-        <f t="shared" si="3"/>
+      <c r="O17" s="28">
+        <f t="shared" si="4"/>
         <v>1.9967657474801098E-2</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="T17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26">
+        <f t="shared" si="5"/>
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="W17" s="26">
+        <f t="shared" si="6"/>
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3203,20 +3472,32 @@
       <c r="H18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27">
-        <f t="shared" si="2"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26">
+        <f t="shared" si="1"/>
         <v>0.15142456827089593</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="T18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26">
+        <f t="shared" si="5"/>
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3238,23 +3519,38 @@
       <c r="H19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27">
-        <f t="shared" si="2"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26">
+        <f t="shared" si="1"/>
         <v>0.19410500440037207</v>
       </c>
-      <c r="O19" s="29">
-        <f t="shared" si="3"/>
+      <c r="O19" s="28">
+        <f t="shared" si="4"/>
         <v>6.3392509775442828E-3</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="T19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26">
+        <f t="shared" si="5"/>
+        <v>0.20914111374373473</v>
+      </c>
+      <c r="W19" s="26">
+        <f t="shared" si="6"/>
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3276,20 +3572,32 @@
       <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="29">
-        <f t="shared" si="2"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28">
+        <f t="shared" si="1"/>
         <v>6.0660005711298849E-3</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="T20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26">
+        <f t="shared" si="5"/>
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3311,20 +3619,32 @@
       <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
-        <f t="shared" si="2"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26">
+        <f t="shared" si="1"/>
         <v>5.1171233757450155E-2</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="T21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26">
+        <f t="shared" si="5"/>
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -3346,20 +3666,32 @@
       <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="29">
-        <f t="shared" si="3"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="28">
+        <f t="shared" si="4"/>
         <v>2.8161913759497835E-3</v>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="T22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26">
+        <f t="shared" si="6"/>
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
@@ -3381,20 +3713,32 @@
       <c r="H23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27">
-        <f t="shared" si="3"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26">
+        <f t="shared" si="4"/>
         <v>0.26487251713744475</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="T23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26">
+        <f t="shared" si="6"/>
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -3416,23 +3760,38 @@
       <c r="H24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27">
-        <f t="shared" si="3"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26">
+        <f t="shared" si="4"/>
         <v>7.2230780065993705E-2</v>
       </c>
-      <c r="P24" s="27">
-        <f t="shared" ref="P20:R46" si="4">F24/F$46</f>
+      <c r="P24" s="26">
+        <f t="shared" ref="P24:R45" si="7">F24/F$46</f>
         <v>5.3292354674612713E-2</v>
       </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="T24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26">
+        <f t="shared" si="6"/>
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="X24" s="26">
+        <f t="shared" ref="X16:X31" si="8">F24/F$45</f>
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
@@ -3454,20 +3813,32 @@
       <c r="H25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="29">
-        <f t="shared" si="3"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="28">
+        <f t="shared" si="4"/>
         <v>2.3791128014061295E-3</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="T25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26">
+        <f t="shared" si="6"/>
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -3489,20 +3860,32 @@
       <c r="H26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="29">
-        <f t="shared" si="4"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="28">
+        <f t="shared" si="7"/>
         <v>2.1818769240900187E-2</v>
       </c>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="T26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26">
+        <f t="shared" si="8"/>
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
@@ -3524,20 +3907,32 @@
       <c r="H27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="29">
-        <f t="shared" si="4"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="28">
+        <f t="shared" si="7"/>
         <v>2.0383007095467792E-3</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="T27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26">
+        <f t="shared" si="8"/>
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
@@ -3559,20 +3954,32 @@
       <c r="H28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="29">
-        <f t="shared" si="4"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="28">
+        <f t="shared" si="7"/>
         <v>3.215802643926049E-3</v>
       </c>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="T28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26">
+        <f t="shared" si="8"/>
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -3594,20 +4001,32 @@
       <c r="H29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="29">
-        <f t="shared" si="4"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="28">
+        <f t="shared" si="7"/>
         <v>4.7859424131175606E-3</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="T29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26">
+        <f t="shared" si="8"/>
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -3629,20 +4048,32 @@
       <c r="H30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="L30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27">
-        <f t="shared" si="4"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
+        <f t="shared" si="7"/>
         <v>0.24957505391567752</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="T30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26">
+        <f t="shared" si="8"/>
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
@@ -3664,20 +4095,32 @@
       <c r="H31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="29">
-        <f t="shared" si="4"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="28">
+        <f t="shared" si="7"/>
         <v>2.6741764483150321E-3</v>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="T31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26">
+        <f t="shared" si="8"/>
+        <v>2.8356113508245856E-3</v>
+      </c>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -3699,20 +4142,32 @@
       <c r="H32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="29">
-        <f t="shared" si="4"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="28">
+        <f t="shared" si="7"/>
         <v>2.556364479244037E-2</v>
       </c>
-      <c r="R32" s="27"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="26"/>
+      <c r="T32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26">
+        <f t="shared" ref="Y16:Y35" si="9">G32/G$45</f>
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="Z32" s="26"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -3734,20 +4189,32 @@
       <c r="H33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27">
-        <f t="shared" si="4"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26">
+        <f t="shared" si="7"/>
         <v>8.5156448740778434E-2</v>
       </c>
-      <c r="R33" s="27"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="26"/>
+      <c r="T33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26">
+        <f t="shared" si="9"/>
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="Z33" s="26"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
@@ -3769,20 +4236,32 @@
       <c r="H34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29">
-        <f t="shared" si="4"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="28">
+        <f t="shared" si="7"/>
         <v>2.5008765094732269E-2</v>
       </c>
-      <c r="R34" s="27"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="26"/>
+      <c r="T34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26">
+        <f t="shared" si="9"/>
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="Z34" s="26"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
@@ -3804,20 +4283,32 @@
       <c r="H35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27">
-        <f t="shared" si="4"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26">
+        <f t="shared" si="7"/>
         <v>0.22838228787559614</v>
       </c>
-      <c r="R35" s="27"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="26"/>
+      <c r="T35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26">
+        <f t="shared" si="9"/>
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="Z35" s="26"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -3839,20 +4330,32 @@
       <c r="H36" s="11">
         <v>1775953</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27">
-        <f t="shared" si="4"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26">
+        <f t="shared" si="7"/>
         <v>0.27389741036716797</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26">
+        <f t="shared" ref="Z16:Z41" si="10">H36/H$45</f>
+        <v>0.28834099042880657</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
@@ -3874,20 +4377,32 @@
       <c r="H37" s="11">
         <v>862186</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27">
-        <f t="shared" si="4"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26">
+        <f t="shared" si="7"/>
         <v>0.13297114994305992</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26">
+        <f t="shared" si="10"/>
+        <v>0.13998318940526636</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
@@ -3909,20 +4424,32 @@
       <c r="H38" s="11">
         <v>95255</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="29">
-        <f t="shared" si="4"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="28">
+        <f t="shared" si="7"/>
         <v>1.4690759172413113E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5465454909727885E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
@@ -3944,20 +4471,32 @@
       <c r="H39" s="11">
         <v>0</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="29">
-        <f t="shared" si="4"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="28">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -3979,20 +4518,32 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="29">
-        <f t="shared" si="4"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="28">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
@@ -4014,20 +4565,32 @@
       <c r="H41" s="11">
         <v>31765</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="29">
-        <f t="shared" si="4"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="28">
+        <f t="shared" si="7"/>
         <v>4.8989760654212641E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T41" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26">
+        <f t="shared" si="10"/>
+        <v>5.1573164160149737E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
@@ -4049,35 +4612,62 @@
       <c r="H42" s="3">
         <v>91419</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="26">
+        <f t="shared" si="3"/>
+        <v>3.306296063490121E-2</v>
+      </c>
+      <c r="N42" s="26">
         <f t="shared" si="1"/>
+        <v>4.3648016993619046E-2</v>
+      </c>
+      <c r="O42" s="26">
+        <f t="shared" si="4"/>
+        <v>3.9983664349441096E-2</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" si="7"/>
+        <v>3.2162142139835044E-2</v>
+      </c>
+      <c r="Q42" s="26">
+        <f t="shared" si="7"/>
+        <v>1.9714538540540658E-2</v>
+      </c>
+      <c r="R42" s="26">
+        <f t="shared" si="7"/>
+        <v>1.40991497851329E-2</v>
+      </c>
+      <c r="T42" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="26" t="e">
+        <f t="shared" ref="U42:U46" si="11">K42/K$46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" s="26" t="e">
+        <f t="shared" ref="V42:V46" si="12">L42/L$46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W42" s="26">
+        <f t="shared" ref="W42:W46" si="13">M42/M$46</f>
         <v>3.306296063490121E-2</v>
       </c>
-      <c r="N42" s="27">
-        <f t="shared" si="2"/>
+      <c r="X42" s="26">
+        <f t="shared" ref="X42:X46" si="14">N42/N$46</f>
         <v>4.3648016993619046E-2</v>
       </c>
-      <c r="O42" s="27">
-        <f t="shared" si="3"/>
+      <c r="Y42" s="26">
+        <f t="shared" ref="Y42:Y46" si="15">O42/O$46</f>
         <v>3.9983664349441096E-2</v>
       </c>
-      <c r="P42" s="27">
-        <f t="shared" si="4"/>
+      <c r="Z42" s="26">
+        <f t="shared" ref="Z36:Z46" si="16">P42/P$46</f>
         <v>3.2162142139835044E-2</v>
       </c>
-      <c r="Q42" s="27">
-        <f t="shared" si="4"/>
-        <v>1.9714538540540658E-2</v>
-      </c>
-      <c r="R42" s="27">
-        <f t="shared" si="4"/>
-        <v>1.40991497851329E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
@@ -4099,35 +4689,62 @@
       <c r="H43" s="3">
         <v>6484008</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N43" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P43" s="27">
+      <c r="O43" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="27">
-        <f t="shared" si="4"/>
+      <c r="P43" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R43" s="27">
-        <f t="shared" si="4"/>
+      <c r="Q43" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U43" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="26" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W43" s="26">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="X43" s="26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="26">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z43" s="26">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -4149,35 +4766,62 @@
       <c r="H44" s="3">
         <v>233378</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L44" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M44" s="26">
+        <f t="shared" si="3"/>
+        <v>2.895287053603933E-2</v>
+      </c>
+      <c r="N44" s="26">
         <f t="shared" si="1"/>
+        <v>2.8246547753639283E-2</v>
+      </c>
+      <c r="O44" s="26">
+        <f t="shared" si="4"/>
+        <v>3.3705978274358346E-2</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="7"/>
+        <v>2.4769109197767643E-2</v>
+      </c>
+      <c r="Q44" s="26">
+        <f t="shared" si="7"/>
+        <v>3.7914228172362945E-2</v>
+      </c>
+      <c r="R44" s="26">
+        <f t="shared" si="7"/>
+        <v>3.5992861205599996E-2</v>
+      </c>
+      <c r="T44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U44" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="26" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W44" s="26">
+        <f t="shared" si="13"/>
         <v>2.895287053603933E-2</v>
       </c>
-      <c r="N44" s="27">
-        <f t="shared" si="2"/>
+      <c r="X44" s="26">
+        <f t="shared" si="14"/>
         <v>2.8246547753639283E-2</v>
       </c>
-      <c r="O44" s="27">
-        <f t="shared" si="3"/>
+      <c r="Y44" s="26">
+        <f t="shared" si="15"/>
         <v>3.3705978274358346E-2</v>
       </c>
-      <c r="P44" s="27">
-        <f t="shared" si="4"/>
+      <c r="Z44" s="26">
+        <f t="shared" si="16"/>
         <v>2.4769109197767643E-2</v>
       </c>
-      <c r="Q44" s="27">
-        <f t="shared" si="4"/>
-        <v>3.7914228172362945E-2</v>
-      </c>
-      <c r="R44" s="27">
-        <f t="shared" si="4"/>
-        <v>3.5992861205599996E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -4199,35 +4843,62 @@
       <c r="H45" s="3">
         <v>6159211</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="26">
+        <f t="shared" si="3"/>
+        <v>0.93798416882905944</v>
+      </c>
+      <c r="N45" s="26">
         <f t="shared" si="1"/>
+        <v>0.9281054352527417</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="4"/>
+        <v>0.9263103573762006</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="7"/>
+        <v>0.94306874866239732</v>
+      </c>
+      <c r="Q45" s="26">
+        <f t="shared" si="7"/>
+        <v>0.94237123328709638</v>
+      </c>
+      <c r="R45" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9499079890092671</v>
+      </c>
+      <c r="T45" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U45" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="26" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W45" s="26">
+        <f t="shared" si="13"/>
         <v>0.93798416882905944</v>
       </c>
-      <c r="N45" s="27">
-        <f t="shared" si="2"/>
+      <c r="X45" s="26">
+        <f t="shared" si="14"/>
         <v>0.9281054352527417</v>
       </c>
-      <c r="O45" s="27">
-        <f t="shared" si="3"/>
+      <c r="Y45" s="26">
+        <f t="shared" si="15"/>
         <v>0.9263103573762006</v>
       </c>
-      <c r="P45" s="27">
-        <f t="shared" si="4"/>
+      <c r="Z45" s="26">
+        <f t="shared" si="16"/>
         <v>0.94306874866239732</v>
       </c>
-      <c r="Q45" s="27">
-        <f t="shared" si="4"/>
-        <v>0.94237123328709638</v>
-      </c>
-      <c r="R45" s="27">
-        <f t="shared" si="4"/>
-        <v>0.9499079890092671</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>100</v>
       </c>
@@ -4236,52 +4907,103 @@
         <v>2321117</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:H46" si="5">SUM((D4:D41),D42,D44)</f>
+        <f t="shared" ref="D46:H46" si="17">SUM((D4:D41),D42,D44)</f>
         <v>2994065</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3102417</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4859440</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5487676</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6484008</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="25">
         <f>SUM(M4:M41,M42,M44)</f>
         <v>1</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="25">
         <f>SUM(N4:N41,N42,N44)</f>
         <v>1</v>
       </c>
-      <c r="O46" s="26">
-        <f t="shared" ref="O46:R46" si="6">SUM(O4:O41,O42,O44)</f>
+      <c r="O46" s="25">
+        <f t="shared" ref="O46:R46" si="18">SUM(O4:O41,O42,O44)</f>
         <v>1</v>
       </c>
-      <c r="P46" s="26">
-        <f t="shared" si="6"/>
+      <c r="P46" s="25">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="26">
-        <f t="shared" si="6"/>
+      <c r="Q46" s="25">
+        <f t="shared" si="18"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="R46" s="26">
-        <f t="shared" si="6"/>
+      <c r="R46" s="25">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T46" s="24"/>
+      <c r="U46" s="25" t="e">
+        <f>SUM(U4:U41,U42,U44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" s="25" t="e">
+        <f>SUM(V4:V41,V42,V44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W46" s="25">
+        <f>SUM(W4:W41,W42,W44)</f>
+        <v>1.0620158311709404</v>
+      </c>
+      <c r="X46" s="25">
+        <f t="shared" ref="W46:Z46" si="19">SUM(X4:X41,X42,X44)</f>
+        <v>1.0718945647472584</v>
+      </c>
+      <c r="Y46" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0736896426237994</v>
+      </c>
+      <c r="Z46" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0569312513376026</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="U48" s="30">
+        <f>SUM(U4:U13)</f>
+        <v>1</v>
+      </c>
+      <c r="V48" s="30">
+        <f>SUM(V4:V21)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="W48" s="30">
+        <f>SUM(W4:W35)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X48" s="30">
+        <f>SUM(X4:X35)</f>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="30">
+        <f>SUM(Y4:Y35)</f>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="30">
+        <f>SUM(Z4:Z41)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4290,19 +5012,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
@@ -4314,7 +5036,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +5048,7 @@
         <v>94386</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -4338,7 +5060,7 @@
         <v>10336</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +5072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +5084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +5096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
@@ -4386,7 +5108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -4398,7 +5120,7 @@
         <v>624126</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4410,7 +5132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +5144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
@@ -4434,7 +5156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="16"/>
@@ -4445,7 +5167,7 @@
         <v>75522</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -4456,7 +5178,7 @@
         <v>581884</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4467,7 +5189,7 @@
         <v>17405</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4478,7 +5200,7 @@
         <v>169239</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4489,7 +5211,7 @@
         <v>453375</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4500,7 +5222,7 @@
         <v>581163</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4511,7 +5233,7 @@
         <v>18162</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -4522,7 +5244,7 @@
         <v>153210</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>1997</v>
       </c>
@@ -4530,33 +5252,33 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4564,27 +5286,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
@@ -4592,37 +5314,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -4638,13 +5360,1493 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:AO41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AP5" sqref="AP5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="J1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="13">
+        <v>1997</v>
+      </c>
+      <c r="L1" s="13">
+        <v>2002</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>2002</v>
+      </c>
+      <c r="R1" s="13">
+        <v>2005</v>
+      </c>
+      <c r="S1" s="13"/>
+      <c r="T1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="13">
+        <v>2005</v>
+      </c>
+      <c r="X1" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="13">
+        <v>2009</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>2014</v>
+      </c>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="13">
+        <v>2014</v>
+      </c>
+      <c r="AJ1" s="13">
+        <v>2020</v>
+      </c>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="J2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="L2" s="32">
+        <f>SUM(D4+D19)</f>
+        <v>0.24310747629919044</v>
+      </c>
+      <c r="M2" s="32">
+        <f>L2-K2</f>
+        <v>2.0476823952636114E-2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="R2" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="S2" s="26">
+        <f>R2-Q2</f>
+        <v>0.2519772361836361</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="X2" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>6.4673580390569793E-2</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AB2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="AD2" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="AE2" s="26">
+        <v>2.8608996767828E-2</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="AJ2" s="26">
+        <v>0.55105304884018425</v>
+      </c>
+      <c r="AK2" s="26">
+        <v>6.2569339405383603E-2</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="30">
+        <f>SUM(M2:M7)/2</f>
+        <v>0.25683500848827112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="L3" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0.16784618077424501</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="R3" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0.15992847919757</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="X3" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="Y3" s="26">
+        <f t="shared" ref="Y3:Y5" si="0">X3-W3</f>
+        <v>0.10483370159690319</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>0.24234853506613599</v>
+      </c>
+      <c r="AE3" s="26">
+        <f t="shared" ref="AE3:AE4" si="1">AD3-AC3</f>
+        <v>0.18583902316660589</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="AJ3" s="26">
+        <v>0.13998318940526636</v>
+      </c>
+      <c r="AK3" s="26">
+        <f t="shared" ref="AK3:AK4" si="2">AJ3-AI3</f>
+        <v>4.9619173895430385E-2</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" s="34">
+        <f>SUM(R2:R7)/2</f>
+        <v>0.49719570005021224</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="D4" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="26">
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="M4" s="32">
+        <f t="shared" ref="M3:M7" si="3">L4-K4</f>
+        <v>0.17228544048507116</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="S4" s="26">
+        <f t="shared" ref="S3:S7" si="4">R4-Q4</f>
+        <v>0.32799710590268094</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>2.1302177559922399E-2</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>0.174277405669333</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="26">
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="AJ4" s="26">
+        <v>0.28834099042880657</v>
+      </c>
+      <c r="AK4" s="26">
+        <f t="shared" si="2"/>
+        <v>4.5992455362670104E-2</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" s="34">
+        <f>SUM(Y2:Y5)/2</f>
+        <v>0.1061384076090138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="J5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.167651048080284</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="M5" s="32">
+        <v>4.49655881726188E-3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="R5" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="S5" s="26">
+        <v>3.9347331853515299E-2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="X5" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>2.14673556706322E-2</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="2"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="2"/>
+      <c r="AN5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO5" s="34">
+        <f>SUM(AE2:AE4)/2</f>
+        <v>0.19436271280188344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28">
+        <v>8.4178045729986304E-3</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" si="3"/>
+        <v>4.2606708740641069E-2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>SUM(D15,D18)</f>
+        <v>0.37255506677683381</v>
+      </c>
+      <c r="R6" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0.294578199206671</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="2"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="2"/>
+      <c r="AN6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO6" s="30">
+        <f>SUM(AK2:AK4)/2</f>
+        <v>7.9090484331742039E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="L7" s="26">
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0.105958304206687</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="R7" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0.20229756403378599</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="23"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="2"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="2"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="2"/>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3.0885952458488561E-2</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="2"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="2"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="2"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.167651048080284</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="2"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="2"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="2"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="2"/>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="E10" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="2"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="2"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="2"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="2"/>
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="28">
+        <v>4.7681142179461329E-3</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1.3876723509545184E-2</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="28">
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.55105304884018425</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28">
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="31">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26">
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="E19" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="28">
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="J20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="32">
+        <f>SUM(C6,C8,C11,C13)</f>
+        <v>5.7948594758978504E-2</v>
+      </c>
+      <c r="L20" s="32">
+        <f>SUM(D14,D16,D20,D17)</f>
+        <v>0.1008806653788243</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="3"/>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="32">
+        <f>SUM(D5,D14,D16,D20)</f>
+        <v>4.3696793733140255E-2</v>
+      </c>
+      <c r="R20" s="32">
+        <f>SUM(E22,E25)</f>
+        <v>5.6085998995755101E-3</v>
+      </c>
+      <c r="S20" s="32"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="32">
+        <f>SUM(E17,E19,E22,E25)</f>
+        <v>3.4008269883683669E-2</v>
+      </c>
+      <c r="X20" s="32">
+        <f>SUM(F26,F27,F28,F29,F31)</f>
+        <v>3.6617681907904931E-2</v>
+      </c>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" s="32">
+        <f>SUM(F26:F29,F31)</f>
+        <v>3.6617681907904931E-2</v>
+      </c>
+      <c r="AD20" s="32">
+        <f>SUM(G32,G34)</f>
+        <v>5.3665061178459803E-2</v>
+      </c>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="3"/>
+      <c r="AH20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI20" s="32">
+        <f>SUM(G32,G34)</f>
+        <v>5.3665061178459803E-2</v>
+      </c>
+      <c r="AJ20" s="32">
+        <f>SUM(H38:H41)</f>
+        <v>2.0622771325742858E-2</v>
+      </c>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26">
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26">
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="32">
+        <f>SUM(K2:K20)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="32">
+        <f>SUM(L2:L20)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="32">
+        <f>SUM(Q2:Q20)</f>
+        <v>1.154265426038791</v>
+      </c>
+      <c r="R22" s="32">
+        <f>SUM(R2:R20)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="32"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="32">
+        <f>SUM(W2:W20)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X22" s="32">
+        <f>SUM(X2:X20)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="32">
+        <f>SUM(AC2:AC20)</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="32">
+        <f>SUM(AD2:AD20)</f>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="32">
+        <f>SUM(AI2:AI20)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="32">
+        <f>SUM(AJ2:AJ20)</f>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="3"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="F24" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26">
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26">
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26">
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26">
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26">
+        <v>2.8356113508245856E-3</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26">
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26">
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26">
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26">
+        <v>0.28834099042880657</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26">
+        <v>0.13998318940526636</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26">
+        <v>1.5465454909727885E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26">
+        <v>5.1573164160149737E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\VOLATILIDAD_ELEC\METODOLOGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB4F93-E3CE-47CB-AA14-56E77FC6333D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="votos totales" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="62">
   <si>
     <t>ADN</t>
   </si>
@@ -193,28 +192,34 @@
     <t>MIR-NM-FRI-UCS</t>
   </si>
   <si>
-    <t>VE9702</t>
+    <t>CNT</t>
   </si>
   <si>
-    <t>VE0205</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>VE0509</t>
+    <t>O. Partidos</t>
   </si>
   <si>
-    <t>VE0914</t>
+    <t>1997 - 2002</t>
   </si>
   <si>
-    <t>VE1420</t>
+    <t>2002 - 2005</t>
   </si>
   <si>
-    <t>CNT</t>
+    <t>2005 - 2009</t>
+  </si>
+  <si>
+    <t>2009 - 2014</t>
+  </si>
+  <si>
+    <t>2014 - 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,14 +419,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,6 +454,1001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0"/>
+              <a:t>Bolivia:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" baseline="0"/>
+              <a:t> Volatilidad electoral de 1997-2020 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$AN$2:$AN$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1997 - 2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002 - 2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005 - 2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009 - 2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014 - 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$AO$2:$AO$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.25683500848827112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49719570005021224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1061384076090138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19436271280188344</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>7.9090484331742039E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E4B-4C5A-B741-FFB34DAF32DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1711539936"/>
+        <c:axId val="1711544096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1711539936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711544096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1711544096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711539936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,21 +1713,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -768,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -815,12 +1821,12 @@
         <v>2177171</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -870,7 +1876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -920,12 +1926,12 @@
         <v>2778808</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -966,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1007,12 +2013,12 @@
         <v>2873801</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1053,7 +2059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1094,7 +2100,7 @@
         <v>4462411</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +2141,7 @@
         <v>120375</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B18:B19)</f>
         <v>106027</v>
@@ -1185,7 +2191,7 @@
         <v>4582786</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>106027</v>
       </c>
@@ -1223,12 +2229,12 @@
         <v>4582786</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1263,7 +2269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1298,7 +2304,7 @@
         <v>5011388</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1333,7 +2339,7 @@
         <v>160040</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>SUM(B24:B25)</f>
         <v>3173304</v>
@@ -1375,7 +2381,7 @@
         <v>5171428</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3173304</v>
       </c>
@@ -1407,12 +2413,12 @@
         <v>5171428</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +2506,7 @@
         <v>5996402</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +2550,7 @@
         <v>162809</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>SUM(B30:B31)</f>
         <v>0</v>
@@ -1598,7 +2604,7 @@
         <v>6159211</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1646,19 +2652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="15.6640625" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +2687,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +2733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +2779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +2802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +2825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +2848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +2871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +2894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +2917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1934,7 +2940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1957,7 +2963,7 @@
         <v>3394052</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +2986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2003,7 +3009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +3032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +3055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +3078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2095,7 +3101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +3124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +3147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2164,7 +3170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
@@ -2187,7 +3193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2210,7 +3216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
@@ -2233,7 +3239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
@@ -2256,7 +3262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -2279,7 +3285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +3308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
@@ -2325,7 +3331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -2348,7 +3354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +3377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
@@ -2394,7 +3400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2417,7 +3423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2440,7 +3446,7 @@
         <v>1775953</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2463,7 +3469,7 @@
         <v>862186</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
@@ -2486,7 +3492,7 @@
         <v>95255</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
@@ -2509,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2532,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
@@ -2555,7 +3561,7 @@
         <v>31765</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
@@ -2578,7 +3584,7 @@
         <v>91419</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2601,7 +3607,7 @@
         <v>6484008</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +3630,7 @@
         <v>233378</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2654,20 +3660,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z48"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="T3" sqref="T3:Z45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" style="24" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2732,7 +3738,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +3850,7 @@
       <c r="Y5" s="26"/>
       <c r="Z5" s="26"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
@@ -2891,7 +3897,7 @@
       <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2917,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" ref="M5:M45" si="3">C7/C$46</f>
+        <f t="shared" ref="M7:M45" si="3">C7/C$46</f>
         <v>3.4813410956879814E-2</v>
       </c>
       <c r="N7" s="26"/>
@@ -2938,7 +3944,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2985,7 +3991,7 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3032,7 +4038,7 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3080,7 +4086,7 @@
         <v>0.18199535084749888</v>
       </c>
       <c r="V10" s="26">
-        <f t="shared" ref="V6:V21" si="5">D10/D$45</f>
+        <f t="shared" ref="V10:V21" si="5">D10/D$45</f>
         <v>0.22460205958813995</v>
       </c>
       <c r="W10" s="26">
@@ -3091,7 +4097,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +4144,7 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3185,7 +4191,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="26"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +4238,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3279,7 +4285,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +4340,7 @@
         <v>0.20940057751381166</v>
       </c>
       <c r="W15" s="26">
-        <f t="shared" ref="W11:W25" si="6">E15/E$45</f>
+        <f t="shared" ref="W15:W25" si="6">E15/E$45</f>
         <v>0.53739768341649263</v>
       </c>
       <c r="X15" s="26">
@@ -3350,7 +4356,7 @@
         <v>0.55105304884018425</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
@@ -3397,7 +4403,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3450,7 +4456,7 @@
       <c r="Y17" s="26"/>
       <c r="Z17" s="26"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3497,7 +4503,7 @@
       <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +4556,7 @@
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3597,7 +4603,7 @@
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3644,7 +4650,7 @@
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +4697,7 @@
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +4744,7 @@
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -3785,13 +4791,13 @@
         <v>7.7976867570162298E-2</v>
       </c>
       <c r="X24" s="26">
-        <f t="shared" ref="X16:X31" si="8">F24/F$45</f>
+        <f t="shared" ref="X24:X31" si="8">F24/F$45</f>
         <v>5.6509511899530109E-2</v>
       </c>
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
@@ -3838,7 +4844,7 @@
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -3885,7 +4891,7 @@
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
@@ -3932,7 +4938,7 @@
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
@@ -3979,7 +4985,7 @@
       <c r="Y28" s="26"/>
       <c r="Z28" s="26"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -4026,7 +5032,7 @@
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -4073,7 +5079,7 @@
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
@@ -4120,7 +5126,7 @@
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -4162,12 +5168,12 @@
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26">
-        <f t="shared" ref="Y16:Y35" si="9">G32/G$45</f>
+        <f t="shared" ref="Y32:Y35" si="9">G32/G$45</f>
         <v>2.7126936699109028E-2</v>
       </c>
       <c r="Z32" s="26"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -4214,7 +5220,7 @@
       </c>
       <c r="Z33" s="26"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
@@ -4261,7 +5267,7 @@
       </c>
       <c r="Z34" s="26"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
@@ -4308,7 +5314,7 @@
       </c>
       <c r="Z35" s="26"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -4351,11 +5357,11 @@
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26">
-        <f t="shared" ref="Z16:Z41" si="10">H36/H$45</f>
+        <f t="shared" ref="Z36:Z41" si="10">H36/H$45</f>
         <v>0.28834099042880657</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
@@ -4402,7 +5408,7 @@
         <v>0.13998318940526636</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
@@ -4449,7 +5455,7 @@
         <v>1.5465454909727885E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
@@ -4496,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -4543,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
@@ -4590,7 +5596,7 @@
         <v>5.1573164160149737E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
@@ -4643,31 +5649,31 @@
         <v>10</v>
       </c>
       <c r="U42" s="26" t="e">
-        <f t="shared" ref="U42:U46" si="11">K42/K$46</f>
+        <f t="shared" ref="U42:U45" si="11">K42/K$46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V42" s="26" t="e">
-        <f t="shared" ref="V42:V46" si="12">L42/L$46</f>
+        <f t="shared" ref="V42:V45" si="12">L42/L$46</f>
         <v>#VALUE!</v>
       </c>
       <c r="W42" s="26">
-        <f t="shared" ref="W42:W46" si="13">M42/M$46</f>
+        <f t="shared" ref="W42:W45" si="13">M42/M$46</f>
         <v>3.306296063490121E-2</v>
       </c>
       <c r="X42" s="26">
-        <f t="shared" ref="X42:X46" si="14">N42/N$46</f>
+        <f t="shared" ref="X42:X45" si="14">N42/N$46</f>
         <v>4.3648016993619046E-2</v>
       </c>
       <c r="Y42" s="26">
-        <f t="shared" ref="Y42:Y46" si="15">O42/O$46</f>
+        <f t="shared" ref="Y42:Y45" si="15">O42/O$46</f>
         <v>3.9983664349441096E-2</v>
       </c>
       <c r="Z42" s="26">
-        <f t="shared" ref="Z36:Z46" si="16">P42/P$46</f>
+        <f t="shared" ref="Z42:Z45" si="16">P42/P$46</f>
         <v>3.2162142139835044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
@@ -4744,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -4821,7 +5827,7 @@
         <v>2.4769109197767643E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +5904,7 @@
         <v>0.94306874866239732</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>100</v>
       </c>
@@ -4964,7 +5970,7 @@
         <v>1.0620158311709404</v>
       </c>
       <c r="X46" s="25">
-        <f t="shared" ref="W46:Z46" si="19">SUM(X4:X41,X42,X44)</f>
+        <f t="shared" ref="X46:Z46" si="19">SUM(X4:X41,X42,X44)</f>
         <v>1.0718945647472584</v>
       </c>
       <c r="Y46" s="25">
@@ -4976,31 +5982,31 @@
         <v>1.0569312513376026</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="U48" s="30">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U48" s="29">
         <f>SUM(U4:U13)</f>
         <v>1</v>
       </c>
-      <c r="V48" s="30">
+      <c r="V48" s="29">
         <f>SUM(V4:V21)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="W48" s="30">
+      <c r="W48" s="29">
         <f>SUM(W4:W35)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="X48" s="30">
+      <c r="X48" s="29">
         <f>SUM(X4:X35)</f>
         <v>1</v>
       </c>
-      <c r="Y48" s="30">
+      <c r="Y48" s="29">
         <f>SUM(Y4:Y35)</f>
         <v>1</v>
       </c>
-      <c r="Z48" s="30">
+      <c r="Z48" s="29">
         <f>SUM(Z4:Z41)</f>
         <v>1</v>
       </c>
@@ -5012,19 +6018,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
@@ -5036,7 +6042,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -5048,7 +6054,7 @@
         <v>94386</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -5060,7 +6066,7 @@
         <v>10336</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
@@ -5072,7 +6078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -5084,7 +6090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
@@ -5096,7 +6102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
@@ -5108,7 +6114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -5120,7 +6126,7 @@
         <v>624126</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5132,7 +6138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +6150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
@@ -5156,7 +6162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="16"/>
@@ -5167,7 +6173,7 @@
         <v>75522</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5178,7 +6184,7 @@
         <v>581884</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5189,7 +6195,7 @@
         <v>17405</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -5200,7 +6206,7 @@
         <v>169239</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5211,7 +6217,7 @@
         <v>453375</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -5222,7 +6228,7 @@
         <v>581163</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -5233,7 +6239,7 @@
         <v>18162</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5244,7 +6250,7 @@
         <v>153210</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
         <v>1997</v>
       </c>
@@ -5252,33 +6258,33 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -5286,27 +6292,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
@@ -5314,37 +6320,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -5360,30 +6366,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="J1" s="23" t="s">
+    <row r="1" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="36">
         <v>1997</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="36">
         <v>2002</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="23" t="s">
         <v>45</v>
       </c>
@@ -5437,21 +6443,21 @@
         <v>45</v>
       </c>
       <c r="AO1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="26">
         <v>0.22263065234655433</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="31">
         <f>SUM(D4+D19)</f>
         <v>0.24310747629919044</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <f>L2-K2</f>
         <v>2.0476823952636114E-2</v>
       </c>
@@ -5518,14 +6524,14 @@
         <v>52</v>
       </c>
       <c r="AN2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" s="30">
+        <v>57</v>
+      </c>
+      <c r="AO2" s="29">
         <f>SUM(M2:M7)/2</f>
         <v>0.25683500848827112</v>
       </c>
     </row>
-    <row r="3" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
@@ -5556,7 +6562,7 @@
       <c r="L3" s="26">
         <v>3.7195804819908393E-3</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="31">
         <v>0.16784618077424501</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -5587,7 +6593,7 @@
         <v>0.64223138501339583</v>
       </c>
       <c r="Y3" s="26">
-        <f t="shared" ref="Y3:Y5" si="0">X3-W3</f>
+        <f t="shared" ref="Y3" si="0">X3-W3</f>
         <v>0.10483370159690319</v>
       </c>
       <c r="Z3" s="2" t="s">
@@ -5603,7 +6609,7 @@
         <v>0.24234853506613599</v>
       </c>
       <c r="AE3" s="26">
-        <f t="shared" ref="AE3:AE4" si="1">AD3-AC3</f>
+        <f t="shared" ref="AE3" si="1">AD3-AC3</f>
         <v>0.18583902316660589</v>
       </c>
       <c r="AF3" s="2" t="s">
@@ -5626,14 +6632,14 @@
         <v>39</v>
       </c>
       <c r="AN3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" s="34">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="33">
         <f>SUM(R2:R7)/2</f>
         <v>0.49719570005021224</v>
       </c>
     </row>
-    <row r="4" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -5658,8 +6664,8 @@
       <c r="L4" s="26">
         <v>0.20940057751381166</v>
       </c>
-      <c r="M4" s="32">
-        <f t="shared" ref="M3:M7" si="3">L4-K4</f>
+      <c r="M4" s="31">
+        <f t="shared" ref="M4:M6" si="3">L4-K4</f>
         <v>0.17228544048507116</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -5675,7 +6681,7 @@
         <v>0.53739768341649263</v>
       </c>
       <c r="S4" s="26">
-        <f t="shared" ref="S3:S7" si="4">R4-Q4</f>
+        <f t="shared" ref="S4" si="4">R4-Q4</f>
         <v>0.32799710590268094</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -5728,14 +6734,14 @@
         <v>38</v>
       </c>
       <c r="AN4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO4" s="34">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="33">
         <f>SUM(Y2:Y5)/2</f>
         <v>0.1061384076090138</v>
       </c>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
@@ -5758,7 +6764,7 @@
       <c r="L5" s="26">
         <v>0.16315448926302212</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
         <v>4.49655881726188E-3</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -5794,25 +6800,37 @@
       <c r="Z5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
+      <c r="AB5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>3.6617681907904931E-2</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>5.3665061178459803E-2</v>
+      </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="2"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
+      <c r="AH5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>5.3665061178459803E-2</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>2.0622771325742858E-2</v>
+      </c>
       <c r="AK5" s="26"/>
       <c r="AL5" s="2"/>
       <c r="AN5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO5" s="34">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="33">
         <f>SUM(AE2:AE4)/2</f>
         <v>0.19436271280188344</v>
       </c>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
@@ -5833,7 +6851,7 @@
       <c r="L6" s="26">
         <v>0.22460205958813995</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <f t="shared" si="3"/>
         <v>4.2606708740641069E-2</v>
       </c>
@@ -5844,8 +6862,8 @@
         <v>53</v>
       </c>
       <c r="Q6" s="26">
-        <f>SUM(D15,D18)</f>
-        <v>0.37255506677683381</v>
+        <f>SUM(D18,D21)</f>
+        <v>0.21828964073804308</v>
       </c>
       <c r="R6" s="26">
         <v>7.7976867570162298E-2</v>
@@ -5856,30 +6874,52 @@
       <c r="T6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
+      <c r="V6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="31">
+        <v>3.4008269883683669E-2</v>
+      </c>
+      <c r="X6" s="31">
+        <v>3.6617681907904931E-2</v>
+      </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="2"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
+      <c r="AB6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="31">
+        <f>SUM(AC2:AC5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="31">
+        <f>SUM(AD2:AD5)</f>
+        <v>0.99999999999999956</v>
+      </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="2"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
+      <c r="AH6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI6" s="31">
+        <f>SUM(AI2:AI5)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="31">
+        <f>SUM(AJ2:AJ5)</f>
+        <v>1</v>
+      </c>
       <c r="AK6" s="26"/>
       <c r="AL6" s="2"/>
       <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" s="30">
+        <v>61</v>
+      </c>
+      <c r="AO6" s="29">
         <f>SUM(AK2:AK4)/2</f>
         <v>7.9090484331742039E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
@@ -5900,7 +6940,7 @@
       <c r="L7" s="26">
         <v>5.5135151475020946E-2</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>0.105958304206687</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -5921,9 +6961,15 @@
       <c r="T7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
+      <c r="V7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X7" s="31">
+        <v>1</v>
+      </c>
       <c r="Y7" s="26"/>
       <c r="Z7" s="2"/>
       <c r="AB7" s="23"/>
@@ -5937,7 +6983,7 @@
       <c r="AK7" s="26"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
@@ -5949,14 +6995,26 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="31">
+        <v>5.7948594758978504E-2</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0.1008806653788243</v>
+      </c>
       <c r="M8" s="26"/>
       <c r="N8" s="2"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="P8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>4.3696793733140255E-2</v>
+      </c>
+      <c r="R8" s="31">
+        <v>5.6085998995755101E-3</v>
+      </c>
       <c r="S8" s="26"/>
       <c r="T8" s="2"/>
       <c r="V8" s="23"/>
@@ -5975,7 +7033,7 @@
       <c r="AK8" s="26"/>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
@@ -5987,14 +7045,26 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1.0000000000000002</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="P9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1</v>
+      </c>
       <c r="S9" s="26"/>
       <c r="T9" s="2"/>
       <c r="V9" s="23"/>
@@ -6013,7 +7083,7 @@
       <c r="AK9" s="26"/>
       <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
@@ -6055,7 +7125,7 @@
       <c r="AK10" s="26"/>
       <c r="AL10" s="2"/>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +7163,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
@@ -6131,7 +7201,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
@@ -6169,7 +7239,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
@@ -6207,7 +7277,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
@@ -6253,7 +7323,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
@@ -6291,12 +7361,12 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>6.0903452127674888E-2</v>
       </c>
       <c r="E17" s="26">
@@ -6331,7 +7401,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
@@ -6369,7 +7439,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>20</v>
       </c>
@@ -6409,7 +7479,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
@@ -6424,15 +7494,15 @@
       <c r="J20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <f>SUM(C6,C8,C11,C13)</f>
         <v>5.7948594758978504E-2</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="31">
         <f>SUM(D14,D16,D20,D17)</f>
         <v>0.1008806653788243</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="3"/>
       <c r="O20" t="s">
         <v>50</v>
@@ -6440,57 +7510,57 @@
       <c r="P20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="31">
         <f>SUM(D5,D14,D16,D20)</f>
         <v>4.3696793733140255E-2</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="31">
         <f>SUM(E22,E25)</f>
         <v>5.6085998995755101E-3</v>
       </c>
-      <c r="S20" s="32"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="3"/>
       <c r="V20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="32">
+      <c r="W20" s="31">
         <f>SUM(E17,E19,E22,E25)</f>
         <v>3.4008269883683669E-2</v>
       </c>
-      <c r="X20" s="32">
+      <c r="X20" s="31">
         <f>SUM(F26,F27,F28,F29,F31)</f>
         <v>3.6617681907904931E-2</v>
       </c>
-      <c r="Y20" s="32"/>
+      <c r="Y20" s="31"/>
       <c r="Z20" s="3"/>
       <c r="AB20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AC20" s="32">
+      <c r="AC20" s="31">
         <f>SUM(F26:F29,F31)</f>
         <v>3.6617681907904931E-2</v>
       </c>
-      <c r="AD20" s="32">
+      <c r="AD20" s="31">
         <f>SUM(G32,G34)</f>
         <v>5.3665061178459803E-2</v>
       </c>
-      <c r="AE20" s="32"/>
+      <c r="AE20" s="31"/>
       <c r="AF20" s="3"/>
       <c r="AH20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AI20" s="32">
+      <c r="AI20" s="31">
         <f>SUM(G32,G34)</f>
         <v>5.3665061178459803E-2</v>
       </c>
-      <c r="AJ20" s="32">
+      <c r="AJ20" s="31">
         <f>SUM(H38:H41)</f>
         <v>2.0622771325742858E-2</v>
       </c>
-      <c r="AK20" s="32"/>
+      <c r="AK20" s="31"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>22</v>
       </c>
@@ -6528,7 +7598,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>23</v>
       </c>
@@ -6541,62 +7611,62 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="32">
-        <f>SUM(K2:K20)</f>
+      <c r="K22" s="31">
+        <f>SUM(K2:K8)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="32">
-        <f>SUM(L2:L20)</f>
+      <c r="L22" s="31">
+        <f>SUM(L2:L8)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="32">
-        <f>SUM(Q2:Q20)</f>
-        <v>1.154265426038791</v>
-      </c>
-      <c r="R22" s="32">
-        <f>SUM(R2:R20)</f>
+      <c r="Q22" s="31">
+        <f>SUM(Q2:Q8)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R22" s="31">
+        <f>SUM(R2:R8)</f>
         <v>1</v>
       </c>
-      <c r="S22" s="32"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="32">
-        <f>SUM(W2:W20)</f>
+      <c r="W22" s="31">
+        <f>SUM(W2:W6)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="X22" s="32">
-        <f>SUM(X2:X20)</f>
+      <c r="X22" s="31">
+        <f>SUM(X2:X6)</f>
         <v>1</v>
       </c>
-      <c r="Y22" s="32"/>
+      <c r="Y22" s="31"/>
       <c r="Z22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="32">
+      <c r="AC22" s="31">
         <f>SUM(AC2:AC20)</f>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="32">
+        <v>2.0366176819079049</v>
+      </c>
+      <c r="AD22" s="31">
         <f>SUM(AD2:AD20)</f>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="AE22" s="32"/>
+        <v>2.0536650611784588</v>
+      </c>
+      <c r="AE22" s="31"/>
       <c r="AF22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="32">
+      <c r="AI22" s="31">
         <f>SUM(AI2:AI20)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="32">
+        <v>2.0536650611784597</v>
+      </c>
+      <c r="AJ22" s="31">
         <f>SUM(AJ2:AJ20)</f>
-        <v>1</v>
-      </c>
-      <c r="AK22" s="32"/>
+        <v>2.0206227713257428</v>
+      </c>
+      <c r="AK22" s="31"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
@@ -6609,7 +7679,7 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>25</v>
       </c>
@@ -6624,7 +7694,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>26</v>
       </c>
@@ -6637,7 +7707,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>27</v>
       </c>
@@ -6650,7 +7720,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>28</v>
       </c>
@@ -6663,7 +7733,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>29</v>
       </c>
@@ -6676,7 +7746,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
         <v>30</v>
       </c>
@@ -6689,7 +7759,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>31</v>
       </c>
@@ -6702,7 +7772,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
         <v>32</v>
       </c>
@@ -6715,7 +7785,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>33</v>
       </c>
@@ -6728,7 +7798,7 @@
       </c>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
         <v>34</v>
       </c>
@@ -6741,7 +7811,7 @@
       </c>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
         <v>35</v>
       </c>
@@ -6754,7 +7824,7 @@
       </c>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
         <v>36</v>
       </c>
@@ -6767,7 +7837,7 @@
       </c>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>38</v>
       </c>
@@ -6780,7 +7850,7 @@
         <v>0.28834099042880657</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
@@ -6793,7 +7863,7 @@
         <v>0.13998318940526636</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
         <v>40</v>
       </c>
@@ -6806,7 +7876,7 @@
         <v>1.5465454909727885E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
         <v>41</v>
       </c>
@@ -6819,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
         <v>42</v>
       </c>
@@ -6832,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
         <v>43</v>
       </c>
@@ -6848,5 +7918,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="63">
   <si>
     <t>ADN</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>2014 - 2020</t>
+  </si>
+  <si>
+    <t>nfr</t>
   </si>
 </sst>
 </file>
@@ -423,15 +426,15 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,9 +656,9 @@
             <c:numRef>
               <c:f>Hoja2!$AO$2:$AO$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0.00%">
+                <c:pt idx="0">
                   <c:v>0.25683500848827112</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -667,7 +670,7 @@
                 <c:pt idx="3">
                   <c:v>0.19436271280188344</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00%">
+                <c:pt idx="4">
                   <c:v>7.9090484331742039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6259,7 +6262,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6267,7 +6270,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
@@ -6296,7 +6299,7 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6304,13 +6307,13 @@
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -6369,20 +6372,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="36">
+      <c r="K1" s="34">
         <v>1997</v>
       </c>
-      <c r="L1" s="36">
+      <c r="L1" s="34">
         <v>2002</v>
       </c>
       <c r="M1" s="13"/>
@@ -6634,7 +6637,7 @@
       <c r="AN3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="33">
+      <c r="AO3" s="35">
         <f>SUM(R2:R7)/2</f>
         <v>0.49719570005021224</v>
       </c>
@@ -6736,7 +6739,7 @@
       <c r="AN4" t="s">
         <v>59</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO4" s="35">
         <f>SUM(Y2:Y5)/2</f>
         <v>0.1061384076090138</v>
       </c>
@@ -6825,7 +6828,7 @@
       <c r="AN5" t="s">
         <v>60</v>
       </c>
-      <c r="AO5" s="33">
+      <c r="AO5" s="35">
         <f>SUM(AE2:AE4)/2</f>
         <v>0.19436271280188344</v>
       </c>
@@ -7099,9 +7102,15 @@
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>2.9100000000000001E-2</v>
+      </c>
       <c r="M10" s="26"/>
       <c r="N10" s="2"/>
       <c r="P10" s="23"/>

--- a/METODOLOGIA/datos votos.xlsx
+++ b/METODOLOGIA/datos votos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="votos totales" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Votos (2)" sheetId="6" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
+    <sheet name="VOLATILIDAD" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="64">
   <si>
     <t>ADN</t>
   </si>
@@ -218,6 +219,9 @@
   <si>
     <t>nfr</t>
   </si>
+  <si>
+    <t>abs</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -387,12 +397,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -433,9 +454,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,19 +686,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25683500848827112</c:v>
+                  <c:v>0.27830104379819404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49719570005021224</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1061384076090138</c:v>
+                  <c:v>0.10744311362112442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19436271280188344</c:v>
+                  <c:v>0.202886402437161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9090484331742039E-2</c:v>
+                  <c:v>9.5611629258100489E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3666,8 +3693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:Z45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,6 +4454,10 @@
       </c>
       <c r="H17" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="K17" s="29">
+        <f>SUM(M4,M5,M10,M9,M12)</f>
+        <v>0.84881589338236718</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>18</v>
@@ -6262,7 +6293,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6270,7 +6301,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
@@ -6299,7 +6330,7 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6307,13 +6338,13 @@
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="40"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="40"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -6372,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6461,7 +6492,7 @@
         <v>0.24310747629919044</v>
       </c>
       <c r="M2" s="31">
-        <f>L2-K2</f>
+        <f>ABS(L2-K2)</f>
         <v>2.0476823952636114E-2</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -6476,8 +6507,8 @@
       <c r="R2" s="26">
         <v>0.28594359873909153</v>
       </c>
-      <c r="S2" s="26">
-        <f>R2-Q2</f>
+      <c r="S2" s="31">
+        <f>ABS(R2-Q2)</f>
         <v>0.2519772361836361</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -6492,8 +6523,9 @@
       <c r="X2" s="26">
         <v>0</v>
       </c>
-      <c r="Y2" s="26">
-        <v>6.4673580390569793E-2</v>
+      <c r="Y2" s="31">
+        <f>ABS(X2-W2)</f>
+        <v>6.4673580390569835E-2</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AB2" s="23" t="s">
@@ -6505,8 +6537,9 @@
       <c r="AD2" s="26">
         <v>0.61362238824556781</v>
       </c>
-      <c r="AE2" s="26">
-        <v>2.8608996767828E-2</v>
+      <c r="AE2" s="31">
+        <f>ABS(AD2-AC2)</f>
+        <v>2.8608996767828021E-2</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>52</v>
@@ -6520,8 +6553,9 @@
       <c r="AJ2" s="26">
         <v>0.55105304884018425</v>
       </c>
-      <c r="AK2" s="26">
-        <v>6.2569339405383603E-2</v>
+      <c r="AK2" s="31">
+        <f>ABS(AJ2-AI2)</f>
+        <v>6.2569339405383562E-2</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>52</v>
@@ -6530,8 +6564,8 @@
         <v>57</v>
       </c>
       <c r="AO2" s="29">
-        <f>SUM(M2:M7)/2</f>
-        <v>0.25683500848827112</v>
+        <f>SUM(M2:M8)/2</f>
+        <v>0.27830104379819404</v>
       </c>
     </row>
     <row r="3" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6600,8 @@
         <v>3.7195804819908393E-3</v>
       </c>
       <c r="M3" s="31">
-        <v>0.16784618077424501</v>
+        <f t="shared" ref="M3:M8" si="0">ABS(L3-K3)</f>
+        <v>0.1678461807742449</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
@@ -6580,8 +6615,9 @@
       <c r="R3" s="26">
         <v>6.4673580390569835E-2</v>
       </c>
-      <c r="S3" s="26">
-        <v>0.15992847919757</v>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S8" si="1">ABS(R3-Q3)</f>
+        <v>0.15992847919757011</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>6</v>
@@ -6595,8 +6631,8 @@
       <c r="X3" s="26">
         <v>0.64223138501339583</v>
       </c>
-      <c r="Y3" s="26">
-        <f t="shared" ref="Y3" si="0">X3-W3</f>
+      <c r="Y3" s="31">
+        <f t="shared" ref="Y3:Y6" si="2">ABS(X3-W3)</f>
         <v>0.10483370159690319</v>
       </c>
       <c r="Z3" s="2" t="s">
@@ -6611,8 +6647,8 @@
       <c r="AD3" s="26">
         <v>0.24234853506613599</v>
       </c>
-      <c r="AE3" s="26">
-        <f t="shared" ref="AE3" si="1">AD3-AC3</f>
+      <c r="AE3" s="31">
+        <f t="shared" ref="AE3:AE5" si="3">ABS(AD3-AC3)</f>
         <v>0.18583902316660589</v>
       </c>
       <c r="AF3" s="2" t="s">
@@ -6627,8 +6663,8 @@
       <c r="AJ3" s="26">
         <v>0.13998318940526636</v>
       </c>
-      <c r="AK3" s="26">
-        <f t="shared" ref="AK3:AK4" si="2">AJ3-AI3</f>
+      <c r="AK3" s="31">
+        <f t="shared" ref="AK3:AK5" si="4">ABS(AJ3-AI3)</f>
         <v>4.9619173895430385E-2</v>
       </c>
       <c r="AL3" s="2" t="s">
@@ -6638,8 +6674,8 @@
         <v>58</v>
       </c>
       <c r="AO3" s="35">
-        <f>SUM(R2:R7)/2</f>
-        <v>0.49719570005021224</v>
+        <f>SUM(R2:R8)/2</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6704,7 @@
         <v>0.20940057751381166</v>
       </c>
       <c r="M4" s="31">
-        <f t="shared" ref="M4:M6" si="3">L4-K4</f>
+        <f t="shared" si="0"/>
         <v>0.17228544048507116</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -6683,8 +6719,8 @@
       <c r="R4" s="26">
         <v>0.53739768341649263</v>
       </c>
-      <c r="S4" s="26">
-        <f t="shared" ref="S4" si="4">R4-Q4</f>
+      <c r="S4" s="31">
+        <f t="shared" si="1"/>
         <v>0.32799710590268094</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -6699,25 +6735,27 @@
       <c r="X4" s="26">
         <v>0.26464142117916917</v>
       </c>
-      <c r="Y4" s="26">
-        <v>2.1302177559922399E-2</v>
+      <c r="Y4" s="31">
+        <f t="shared" si="2"/>
+        <v>2.1302177559922364E-2</v>
       </c>
       <c r="Z4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="37">
         <v>0.26464142117916917</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="37">
         <v>9.0364015509835971E-2</v>
       </c>
-      <c r="AE4" s="26">
-        <v>0.174277405669333</v>
-      </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AE4" s="31">
+        <f t="shared" si="3"/>
+        <v>0.1742774056693332</v>
+      </c>
+      <c r="AF4" s="36" t="s">
         <v>34</v>
       </c>
       <c r="AH4" s="23" t="s">
@@ -6729,8 +6767,8 @@
       <c r="AJ4" s="26">
         <v>0.28834099042880657</v>
       </c>
-      <c r="AK4" s="26">
-        <f t="shared" si="2"/>
+      <c r="AK4" s="31">
+        <f t="shared" si="4"/>
         <v>4.5992455362670104E-2</v>
       </c>
       <c r="AL4" s="23" t="s">
@@ -6740,8 +6778,8 @@
         <v>59</v>
       </c>
       <c r="AO4" s="35">
-        <f>SUM(Y2:Y5)/2</f>
-        <v>0.1061384076090138</v>
+        <f>SUM(Y2:Y6)/2</f>
+        <v>0.10744311362112442</v>
       </c>
     </row>
     <row r="5" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,19 +6796,20 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="37">
         <v>0.167651048080284</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="37">
         <v>0.16315448926302212</v>
       </c>
       <c r="M5" s="31">
-        <v>4.49655881726188E-3</v>
-      </c>
-      <c r="N5" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>4.4965588172618809E-3</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>47</v>
       </c>
       <c r="P5" s="23" t="s">
@@ -6782,8 +6821,9 @@
       <c r="R5" s="26">
         <v>2.1556120274159554E-2</v>
       </c>
-      <c r="S5" s="26">
-        <v>3.9347331853515299E-2</v>
+      <c r="S5" s="31">
+        <f t="shared" si="1"/>
+        <v>3.9347331853515334E-2</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>18</v>
@@ -6797,8 +6837,9 @@
       <c r="X5" s="26">
         <v>5.6509511899530109E-2</v>
       </c>
-      <c r="Y5" s="26">
-        <v>2.14673556706322E-2</v>
+      <c r="Y5" s="31">
+        <f t="shared" si="2"/>
+        <v>2.1467355670632189E-2</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>25</v>
@@ -6812,7 +6853,10 @@
       <c r="AD5" s="31">
         <v>5.3665061178459803E-2</v>
       </c>
-      <c r="AE5" s="26"/>
+      <c r="AE5" s="31">
+        <f t="shared" si="3"/>
+        <v>1.7047379270554872E-2</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AH5" s="23" t="s">
         <v>56</v>
@@ -6823,14 +6867,17 @@
       <c r="AJ5" s="31">
         <v>2.0622771325742858E-2</v>
       </c>
-      <c r="AK5" s="26"/>
+      <c r="AK5" s="31">
+        <f t="shared" si="4"/>
+        <v>3.3042289852716941E-2</v>
+      </c>
       <c r="AL5" s="2"/>
       <c r="AN5" t="s">
         <v>60</v>
       </c>
       <c r="AO5" s="35">
-        <f>SUM(AE2:AE4)/2</f>
-        <v>0.19436271280188344</v>
+        <f>SUM(AE2:AE5)/2</f>
+        <v>0.202886402437161</v>
       </c>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6855,7 +6902,7 @@
         <v>0.22460205958813995</v>
       </c>
       <c r="M6" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2606708740641069E-2</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -6871,8 +6918,9 @@
       <c r="R6" s="26">
         <v>7.7976867570162298E-2</v>
       </c>
-      <c r="S6" s="26">
-        <v>0.294578199206671</v>
+      <c r="S6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.14031277316788077</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>25</v>
@@ -6886,7 +6934,10 @@
       <c r="X6" s="31">
         <v>3.6617681907904931E-2</v>
       </c>
-      <c r="Y6" s="26"/>
+      <c r="Y6" s="31">
+        <f t="shared" si="2"/>
+        <v>2.6094120242212623E-3</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AB6" s="23" t="s">
         <v>55</v>
@@ -6918,8 +6969,8 @@
         <v>61</v>
       </c>
       <c r="AO6" s="29">
-        <f>SUM(AK2:AK4)/2</f>
-        <v>7.9090484331742039E-2</v>
+        <f>SUM(AK2:AK5)/2</f>
+        <v>9.5611629258100489E-2</v>
       </c>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6934,19 +6985,20 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="37">
         <v>0.16109345568170805</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="37">
         <v>5.5135151475020946E-2</v>
       </c>
       <c r="M7" s="31">
-        <v>0.105958304206687</v>
-      </c>
-      <c r="N7" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>0.1059583042066871</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>48</v>
       </c>
       <c r="P7" s="23" t="s">
@@ -6958,8 +7010,9 @@
       <c r="R7" s="26">
         <v>6.8435497099486008E-3</v>
       </c>
-      <c r="S7" s="26">
-        <v>0.20229756403378599</v>
+      <c r="S7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.2022975640337864</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>20</v>
@@ -7007,7 +7060,10 @@
       <c r="L8" s="31">
         <v>0.1008806653788243</v>
       </c>
-      <c r="M8" s="26"/>
+      <c r="M8" s="31">
+        <f t="shared" si="0"/>
+        <v>4.2932070619845795E-2</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="P8" s="23" t="s">
         <v>56</v>
@@ -7018,7 +7074,10 @@
       <c r="R8" s="31">
         <v>5.6085998995755101E-3</v>
       </c>
-      <c r="S8" s="26"/>
+      <c r="S8" s="31">
+        <f t="shared" si="1"/>
+        <v>3.8088193833564744E-2</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="V8" s="23"/>
       <c r="W8" s="26"/>
@@ -7929,4 +7988,2127 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF47"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1997</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2002</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2002</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2005</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2005</v>
+      </c>
+      <c r="O2" s="13">
+        <v>2009</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="13">
+        <v>2009</v>
+      </c>
+      <c r="U2" s="13">
+        <v>2014</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>2014</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>2020</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.24310747629919044</v>
+      </c>
+      <c r="D3" s="31">
+        <v>2.0476823952636114E-2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.2519772361836361</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>6.4673580390569793E-2</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="V3" s="26">
+        <v>2.8608996767828E-2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>0.55105304884018425</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>6.2569339405383603E-2</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="29">
+        <v>0.25683500848827112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="C4" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.16784618077424501</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="I4" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.15992847919757</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0.10483370159690319</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0.24234853506613599</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0.18583902316660589</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>0.13998318940526636</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>4.9619173895430385E-2</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>0.49719570005021224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.17228544048507116</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.32799710590268094</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2.1302177559922399E-2</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="37">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="U5" s="37">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="V5" s="37">
+        <v>0.174277405669333</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>0.28834099042880657</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>4.5992455362670097E-2</v>
+      </c>
+      <c r="AC5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>0.1061384076090138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.167651048080284</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="D6" s="38">
+        <v>4.49655881726188E-3</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="26">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="J6" s="26">
+        <v>3.9347331853515299E-2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="O6" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="P6" s="26">
+        <v>2.14673556706322E-2</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="31">
+        <v>3.6617681907904931E-2</v>
+      </c>
+      <c r="U6" s="31">
+        <v>5.3665061178459803E-2</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>5.3665061178459803E-2</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>2.0622771325742858E-2</v>
+      </c>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="2"/>
+      <c r="AE6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>0.19436271280188344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="D7" s="31">
+        <v>4.2606708740641069E-2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.21828964073804308</v>
+      </c>
+      <c r="I7" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.294578199206671</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="31">
+        <v>3.4008269883683669E-2</v>
+      </c>
+      <c r="O7" s="31">
+        <v>3.6617681907904931E-2</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="31">
+        <v>1</v>
+      </c>
+      <c r="U7" s="31">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="V7" s="26"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="2"/>
+      <c r="AE7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>7.9090484331742039E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="C8" s="37">
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.105958304206687</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="I8" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.20229756403378599</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O8" s="31">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5.7948594758978504E-2</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.1008806653788243</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="31">
+        <v>4.3696793733140255E-2</v>
+      </c>
+      <c r="I9" s="31">
+        <v>5.6085998995755101E-3</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="2"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="2"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="34">
+        <v>1997</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2002</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2005</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="13">
+        <v>2005</v>
+      </c>
+      <c r="O15" s="13">
+        <v>2009</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="13">
+        <v>2009</v>
+      </c>
+      <c r="U15" s="13">
+        <v>2014</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>2014</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>2020</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="C16" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="D16" s="31">
+        <f>C16-B16</f>
+        <v>-0.18866428979109889</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="I16" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="J16" s="31">
+        <f>I16-H16</f>
+        <v>-0.15992847919757011</v>
+      </c>
+      <c r="K16" s="41">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="O16" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="P16" s="26">
+        <v>2.14673556706322E-2</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="S16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="V16" s="26">
+        <v>2.8608996767828E-2</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>0.55105304884018425</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>6.2569339405383603E-2</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF16" s="29">
+        <f>SUM(E16:E18)/2</f>
+        <v>0.19955000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="C17" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" ref="D17:D18" si="0">C17-B17</f>
+        <v>-0.1678461807742449</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0.1678</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" ref="J17:J18" si="1">I17-H17</f>
+        <v>0.32799710590268094</v>
+      </c>
+      <c r="K17" s="41">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0.10483370159690319</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="2"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="2"/>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="35">
+        <f>SUM(K16:K19)/2</f>
+        <v>0.36475000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="D18" s="31">
+        <f t="shared" si="0"/>
+        <v>4.2606708740641069E-2</v>
+      </c>
+      <c r="E18" s="41">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="26">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>-3.9347331853515334E-2</v>
+      </c>
+      <c r="K18" s="41">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="23"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="36"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="23"/>
+      <c r="AE18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF18" s="35">
+        <f>SUM(P16:P17)/2</f>
+        <v>6.3150528633767702E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="G19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="I19" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="J19" s="31">
+        <f>I19-H19</f>
+        <v>-0.2022975640337864</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="2"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="2"/>
+      <c r="AE19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF19" s="35">
+        <f>V16/2</f>
+        <v>1.4304498383914E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="2"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="2"/>
+      <c r="AE20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF20" s="29">
+        <f>AB16/2</f>
+        <v>3.1284669702691802E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="2"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="2"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="2"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="2"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>1997</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2002</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2002</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2005</v>
+      </c>
+      <c r="L25" s="13">
+        <v>2005</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2009</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2009</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2014</v>
+      </c>
+      <c r="V25" s="2">
+        <v>2014</v>
+      </c>
+      <c r="W25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0.22263065234655433</v>
+      </c>
+      <c r="C26" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="D26" s="29">
+        <f>ABS(C26-B26)</f>
+        <v>0.18866428979109889</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="29">
+        <f>ABS(H26-G26)</f>
+        <v>3.3966362555455432E-2</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="29">
+        <f>ABS(M26-L26)</f>
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="S26" s="29">
+        <f>ABS(R26-Q26)</f>
+        <v>2.8608996767828021E-2</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="26">
+        <v>0.61362238824556781</v>
+      </c>
+      <c r="W26" s="26">
+        <v>0.55105304884018425</v>
+      </c>
+      <c r="X26" s="29">
+        <f>ABS(W26-V26)</f>
+        <v>6.2569339405383562E-2</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF26" s="29">
+        <f>SUM(D26:D43)/2</f>
+        <v>0.78031870611505494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0.17156576125623574</v>
+      </c>
+      <c r="C27" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="D27" s="29">
+        <f t="shared" ref="D27:D43" si="2">ABS(C27-B27)</f>
+        <v>0.1678461807742449</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="26">
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
+        <f t="shared" ref="I27:I40" si="3">ABS(H27-G27)</f>
+        <v>3.7195804819908393E-3</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0.64223138501339583</v>
+      </c>
+      <c r="N27" s="29">
+        <f t="shared" ref="N27:N39" si="4">ABS(M27-L27)</f>
+        <v>0.10483370159690319</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0</v>
+      </c>
+      <c r="S27" s="29">
+        <f t="shared" ref="S27:S37" si="5">ABS(R27-Q27)</f>
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="26">
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="W27" s="26"/>
+      <c r="X27" s="29">
+        <f t="shared" ref="X27:X37" si="6">ABS(W27-V27)</f>
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" s="35">
+        <f>SUM(I26:I40)/2</f>
+        <v>0.69752617211151047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28">
+        <v>8.4178045729986304E-3</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" si="2"/>
+        <v>8.4178045729986304E-3</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="H28" s="26">
+        <v>6.4673580390569835E-2</v>
+      </c>
+      <c r="I28" s="29">
+        <f t="shared" si="3"/>
+        <v>0.15992847919757011</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+      <c r="N28" s="29">
+        <f t="shared" si="4"/>
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0</v>
+      </c>
+      <c r="S28" s="29">
+        <f t="shared" si="5"/>
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="W28" s="26"/>
+      <c r="X28" s="29">
+        <f t="shared" si="6"/>
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF28" s="35">
+        <f>SUM(N26:N39)/2</f>
+        <v>0.40609280468397724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="26">
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="2"/>
+        <v>3.7115137028740509E-2</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="28">
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="3"/>
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="29">
+        <f t="shared" si="4"/>
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0</v>
+      </c>
+      <c r="S29" s="29">
+        <f t="shared" si="5"/>
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" s="26">
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="W29" s="26"/>
+      <c r="X29" s="29">
+        <f t="shared" si="6"/>
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF29" s="35">
+        <f>SUM(S26:S37)/2</f>
+        <v>0.3863776117544323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="28">
+        <v>3.0885952458488561E-2</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="2"/>
+        <v>3.0885952458488561E-2</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.53739768341649263</v>
+      </c>
+      <c r="I30" s="29">
+        <f t="shared" si="3"/>
+        <v>0.32799710590268094</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="26">
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="29">
+        <f t="shared" si="4"/>
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="29">
+        <f t="shared" si="5"/>
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="W30" s="26"/>
+      <c r="X30" s="29">
+        <f t="shared" si="6"/>
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF30" s="29">
+        <f>SUM(X26:X37)/2</f>
+        <v>0.44894695115981581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="26">
+        <v>0.167651048080284</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="29">
+        <f t="shared" si="2"/>
+        <v>0.167651048080284</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="28">
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="3"/>
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0</v>
+      </c>
+      <c r="N31" s="29">
+        <f t="shared" si="4"/>
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="R31" s="26">
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
+        <f t="shared" si="5"/>
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26">
+        <v>0.28834099042880657</v>
+      </c>
+      <c r="X31" s="29">
+        <f t="shared" si="6"/>
+        <v>0.28834099042880657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.18199535084749888</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.22460205958813995</v>
+      </c>
+      <c r="D32" s="29">
+        <f t="shared" si="2"/>
+        <v>4.2606708740641069E-2</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="30">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="H32" s="26">
+        <v>2.1556120274159554E-2</v>
+      </c>
+      <c r="I32" s="29">
+        <f t="shared" si="3"/>
+        <v>3.9347331853515334E-2</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>5.6509511899530109E-2</v>
+      </c>
+      <c r="N32" s="29">
+        <f t="shared" si="4"/>
+        <v>2.1467355670632189E-2</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="R32" s="26">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29">
+        <f t="shared" si="5"/>
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26">
+        <v>0.13998318940526636</v>
+      </c>
+      <c r="X32" s="29">
+        <f t="shared" si="6"/>
+        <v>0.13998318940526636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="28">
+        <v>4.7681142179461329E-3</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="29">
+        <f t="shared" si="2"/>
+        <v>4.7681142179461329E-3</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="3"/>
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="26">
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="M33" s="26">
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <f t="shared" si="4"/>
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>2.8356113508245856E-3</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0</v>
+      </c>
+      <c r="S33" s="29">
+        <f t="shared" si="5"/>
+        <v>2.8356113508245856E-3</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26">
+        <v>1.5465454909727885E-2</v>
+      </c>
+      <c r="X33" s="29">
+        <f t="shared" si="6"/>
+        <v>1.5465454909727885E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29">
+        <f t="shared" si="2"/>
+        <v>0.16109345568170805</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="H34" s="26">
+        <v>6.8435497099486008E-3</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="3"/>
+        <v>0.2022975640337864</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="N34" s="29">
+        <f t="shared" si="4"/>
+        <v>2.3135926486639351E-2</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="26">
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="S34" s="29">
+        <f t="shared" si="5"/>
+        <v>2.7126936699109028E-2</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26">
+        <v>0</v>
+      </c>
+      <c r="X34" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="28">
+        <v>1.3876723509545184E-2</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3876723509545184E-2</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="28">
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="3"/>
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="26">
+        <v>0</v>
+      </c>
+      <c r="M35" s="26">
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="N35" s="29">
+        <f t="shared" si="4"/>
+        <v>2.1613490134603712E-3</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="S35" s="29">
+        <f t="shared" si="5"/>
+        <v>9.0364015509835971E-2</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26">
+        <v>0</v>
+      </c>
+      <c r="X35" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0</v>
+      </c>
+      <c r="C36" s="28">
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="D36" s="29">
+        <f t="shared" si="2"/>
+        <v>2.717784028259599E-2</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="26">
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="3"/>
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0</v>
+      </c>
+      <c r="M36" s="26">
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="N36" s="29">
+        <f t="shared" si="4"/>
+        <v>3.4099344809031015E-3</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>0</v>
+      </c>
+      <c r="R36" s="26">
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="S36" s="29">
+        <f t="shared" si="5"/>
+        <v>2.6538124479350771E-2</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26">
+        <v>5.1573164160149737E-3</v>
+      </c>
+      <c r="X36" s="29">
+        <f t="shared" si="6"/>
+        <v>5.1573164160149737E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="D37" s="29">
+        <f t="shared" si="2"/>
+        <v>0.20940057751381166</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26">
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="I37" s="29">
+        <f t="shared" si="3"/>
+        <v>3.0402244275090726E-3</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0</v>
+      </c>
+      <c r="M37" s="26">
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="N37" s="29">
+        <f t="shared" si="4"/>
+        <v>5.0748605760775212E-3</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>0</v>
+      </c>
+      <c r="R37" s="26">
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="S37" s="29">
+        <f t="shared" si="5"/>
+        <v>0.24234853506613646</v>
+      </c>
+      <c r="U37" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26">
+        <v>0</v>
+      </c>
+      <c r="X37" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0</v>
+      </c>
+      <c r="C38" s="28">
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" si="2"/>
+        <v>6.2634770016496283E-3</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="I38" s="29">
+        <f t="shared" si="3"/>
+        <v>0.28594359873909153</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="N38" s="29">
+        <f t="shared" si="4"/>
+        <v>0.26464142117916917</v>
+      </c>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="26">
+        <v>0</v>
+      </c>
+      <c r="C39" s="30">
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="D39" s="29">
+        <f t="shared" si="2"/>
+        <v>6.0903452127674888E-2</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="3"/>
+        <v>7.7976867570162298E-2</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>2.8356113508245856E-3</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="4"/>
+        <v>2.8356113508245856E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="26">
+        <v>0</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="D40" s="29">
+        <f t="shared" si="2"/>
+        <v>0.16315448926302212</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0</v>
+      </c>
+      <c r="H40" s="26">
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="I40" s="29">
+        <f t="shared" si="3"/>
+        <v>2.5683754720664375E-3</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="26">
+        <v>0</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="D41" s="29">
+        <f t="shared" si="2"/>
+        <v>0.20914111374373501</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="29"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="26">
+        <v>0</v>
+      </c>
+      <c r="C42" s="28">
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="D42" s="29">
+        <f t="shared" si="2"/>
+        <v>6.5358959669037948E-3</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="26"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="26">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26">
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="D43" s="29">
+        <f t="shared" si="2"/>
+        <v>5.5135151475020946E-2</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F44" s="23"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F46" s="23"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F47" s="23"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>